--- a/default.xlsx
+++ b/default.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pupba/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pupba/Desktop/StudioM/개발 관련/tagger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377883AA-1F35-4248-B031-DBC47E77B19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC2BBF6-7FA4-8847-BC1C-3FE82F3F49D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="-1480" windowWidth="20520" windowHeight="17440" xr2:uid="{29FCC689-95E6-F646-9A46-4D27D4D8C426}"/>
+    <workbookView xWindow="38440" yWindow="-1480" windowWidth="21340" windowHeight="17440" xr2:uid="{29FCC689-95E6-F646-9A46-4D27D4D8C426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>판타지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>Hip Level Shot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-웹툰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본 망가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 코믹스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데포르메</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데포르메 No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -296,13 +320,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,7 +375,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -664,20 +715,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28865B11-57E4-F84B-B8F3-9B088EDEEE91}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -685,143 +737,179 @@
         <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="5" t="s">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="D10" s="5" t="s">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="4" t="s">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" s="1" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="1" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="D14" s="1" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
